--- a/Code/Limpio/Excels/preprocessed/preprocessed_mm_modelo MM - TALCA 28.12_v6 - E1.xlsx
+++ b/Code/Limpio/Excels/preprocessed/preprocessed_mm_modelo MM - TALCA 28.12_v6 - E1.xlsx
@@ -1750,16 +1750,31 @@
         <v>5.578985147816413</v>
       </c>
       <c r="G26">
-        <v>5.175472261572711</v>
+        <v>5.575472261572711</v>
       </c>
       <c r="H26">
-        <v>16.61204610083063</v>
+        <v>17.01204610083063</v>
       </c>
       <c r="I26">
-        <v>26.09639828181984</v>
+        <v>26.49639828181984</v>
       </c>
       <c r="J26">
-        <v>32.36267978392257</v>
+        <v>32.76267978392258</v>
+      </c>
+      <c r="K26">
+        <v>32.76267978392258</v>
+      </c>
+      <c r="L26">
+        <v>32.76267978392258</v>
+      </c>
+      <c r="M26">
+        <v>32.76267978392258</v>
+      </c>
+      <c r="N26">
+        <v>32.76267978392258</v>
+      </c>
+      <c r="O26">
+        <v>32.76267978392258</v>
       </c>
     </row>
     <row r="27" spans="3:15">
@@ -4422,14 +4437,8 @@
       <c r="B2" t="s">
         <v>199</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="E2">
-        <v>0.1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/Code/Limpio/Excels/preprocessed/preprocessed_mm_modelo MM - TALCA 28.12_v6 - E1.xlsx
+++ b/Code/Limpio/Excels/preprocessed/preprocessed_mm_modelo MM - TALCA 28.12_v6 - E1.xlsx
@@ -10,16 +10,17 @@
     <sheet name="FLUJO E1" sheetId="1" r:id="rId1"/>
     <sheet name="Datos_Tarifas" sheetId="2" r:id="rId2"/>
     <sheet name="PARAMETROS GLOBALES" sheetId="3" r:id="rId3"/>
-    <sheet name="BBDD - Error Actual" sheetId="4" r:id="rId4"/>
-    <sheet name="Resultados loc" sheetId="5" r:id="rId5"/>
-    <sheet name="Inicial y final" sheetId="6" r:id="rId6"/>
+    <sheet name="MANEJO DE ESCENARIOS" sheetId="4" r:id="rId4"/>
+    <sheet name="BBDD - Error Actual" sheetId="5" r:id="rId5"/>
+    <sheet name="Resultados loc" sheetId="6" r:id="rId6"/>
+    <sheet name="Inicial y final" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="289">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -622,6 +623,18 @@
   </si>
   <si>
     <t>Para cálculo de impuesto</t>
+  </si>
+  <si>
+    <t>Escenario</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capex % cercano a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capex cercano a </t>
   </si>
   <si>
     <t>LOCALIDAD</t>
@@ -4475,6 +4488,85 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4483,154 +4575,154 @@
   <sheetData>
     <row r="1" spans="1:50">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:50">
@@ -4641,10 +4733,10 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E2">
         <v>4145544</v>
@@ -4659,7 +4751,7 @@
         <v>128</v>
       </c>
       <c r="J2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -4668,19 +4760,19 @@
         <v>2.49041095890411</v>
       </c>
       <c r="M2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AD2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AE2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AW2">
         <v>1</v>
       </c>
       <c r="AX2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:50">
@@ -4691,10 +4783,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E3">
         <v>1282540</v>
@@ -4709,7 +4801,7 @@
         <v>121</v>
       </c>
       <c r="J3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -4718,19 +4810,19 @@
         <v>2.753424657534246</v>
       </c>
       <c r="M3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AD3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AE3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AW3">
         <v>1</v>
       </c>
       <c r="AX3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:50">
@@ -4741,10 +4833,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E4">
         <v>1033270</v>
@@ -4759,7 +4851,7 @@
         <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4768,19 +4860,19 @@
         <v>14.14246575342466</v>
       </c>
       <c r="M4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AD4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AE4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AW4">
         <v>1</v>
       </c>
       <c r="AX4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:50">
@@ -4791,10 +4883,10 @@
         <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E5">
         <v>60298899</v>
@@ -4809,7 +4901,7 @@
         <v>138</v>
       </c>
       <c r="J5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -4818,7 +4910,7 @@
         <v>1.506849315068493</v>
       </c>
       <c r="M5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="N5">
         <v>-0.04235031726138173</v>
@@ -4869,10 +4961,10 @@
         <v>-0.06709134486990943</v>
       </c>
       <c r="AD5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AE5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AF5">
         <v>-0.02</v>
@@ -4929,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="AX5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:50">
@@ -4940,10 +5032,10 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E6">
         <v>1245685</v>
@@ -4958,7 +5050,7 @@
         <v>149</v>
       </c>
       <c r="J6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -4967,7 +5059,7 @@
         <v>5.534246575342466</v>
       </c>
       <c r="M6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="N6">
         <v>-0.05783730274303422</v>
@@ -5018,10 +5110,10 @@
         <v>-0.06956789990885255</v>
       </c>
       <c r="AD6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AE6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AF6">
         <v>-0.02</v>
@@ -5078,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="AX6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:50">
@@ -5089,10 +5181,10 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E7">
         <v>1244838</v>
@@ -5107,7 +5199,7 @@
         <v>123</v>
       </c>
       <c r="J7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -5116,7 +5208,7 @@
         <v>4.906849315068493</v>
       </c>
       <c r="M7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="N7">
         <v>-0.05642172495772248</v>
@@ -5167,10 +5259,10 @@
         <v>-0.06956789990885255</v>
       </c>
       <c r="AD7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AE7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AF7">
         <v>-0.02</v>
@@ -5227,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="AX7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:50">
@@ -5238,10 +5330,10 @@
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E8">
         <v>60209613</v>
@@ -5256,7 +5348,7 @@
         <v>127</v>
       </c>
       <c r="J8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -5265,7 +5357,7 @@
         <v>5.079452054794521</v>
       </c>
       <c r="M8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="N8">
         <v>-0.05682844909792741</v>
@@ -5316,10 +5408,10 @@
         <v>-0.06956789990885255</v>
       </c>
       <c r="AD8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AE8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AF8">
         <v>-0.02</v>
@@ -5376,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="AX8" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -5384,7 +5476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -5394,40 +5486,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -5581,7 +5673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O5"/>
   <sheetViews>
@@ -5591,49 +5683,49 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -5647,13 +5739,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" t="s">
         <v>266</v>
-      </c>
-      <c r="E2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F2" t="s">
-        <v>262</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -5682,13 +5774,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -5717,13 +5809,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -5764,13 +5856,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" t="s">
         <v>267</v>
-      </c>
-      <c r="E5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F5" t="s">
-        <v>263</v>
       </c>
       <c r="G5">
         <v>0</v>

--- a/Code/Limpio/Excels/preprocessed/preprocessed_mm_modelo MM - TALCA 28.12_v6 - E1.xlsx
+++ b/Code/Limpio/Excels/preprocessed/preprocessed_mm_modelo MM - TALCA 28.12_v6 - E1.xlsx
@@ -4535,7 +4535,7 @@
         <v>203</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
